--- a/5. Evaluation/pamm/port_req_hist.xlsx
+++ b/5. Evaluation/pamm/port_req_hist.xlsx
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6401383094904431</v>
+        <v>0.7012113333968701</v>
       </c>
       <c r="C2" s="2">
         <v>42461</v>
@@ -427,10 +427,10 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0.5690035574078964</v>
+        <v>0.5735716936553096</v>
       </c>
       <c r="F2">
-        <v>1.640138309490443</v>
+        <v>1.70121133339687</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2423363044858136</v>
+        <v>0.2647846392342699</v>
       </c>
       <c r="C3" s="2">
         <v>42461</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0.4309964425921036</v>
+        <v>0.4264283063446904</v>
       </c>
       <c r="F3">
-        <v>1.242336304485814</v>
+        <v>1.26478463923427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.32816491990235</v>
+        <v>1.369772260371672</v>
       </c>
       <c r="C4" s="2">
         <v>42491</v>
@@ -467,10 +467,10 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>0.5870645258804199</v>
+        <v>0.5844659417234753</v>
       </c>
       <c r="F4">
-        <v>2.32816491990235</v>
+        <v>2.369772260371672</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.637608546669836</v>
+        <v>0.684822013134974</v>
       </c>
       <c r="C5" s="2">
         <v>42491</v>
@@ -487,10 +487,10 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.41293547411958</v>
+        <v>0.4155340582765247</v>
       </c>
       <c r="F5">
-        <v>1.637608546669836</v>
+        <v>1.684822013134974</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.111252729959654</v>
+        <v>1.236271390173655</v>
       </c>
       <c r="C6" s="2">
         <v>42522</v>
@@ -507,10 +507,10 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0.5651587996637556</v>
+        <v>0.5711693065237978</v>
       </c>
       <c r="F6">
-        <v>2.111252729959654</v>
+        <v>2.236271390173655</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6244278101217449</v>
+        <v>0.6789799453434091</v>
       </c>
       <c r="C7" s="2">
         <v>42522</v>
@@ -527,10 +527,10 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0.4348412003362443</v>
+        <v>0.4288306934762022</v>
       </c>
       <c r="F7">
-        <v>1.624427810121745</v>
+        <v>1.678979945343409</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9141971955001205</v>
+        <v>1.031998173180751</v>
       </c>
       <c r="C8" s="2">
         <v>42552</v>
@@ -547,10 +547,10 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>0.5492239721552143</v>
+        <v>0.5529071651066602</v>
       </c>
       <c r="F8">
-        <v>1.91419719550012</v>
+        <v>2.031998173180751</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5710789259856248</v>
+        <v>0.6431181961084089</v>
       </c>
       <c r="C9" s="2">
         <v>42552</v>
@@ -567,10 +567,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.4507760278447857</v>
+        <v>0.4470928348933398</v>
       </c>
       <c r="F9">
-        <v>1.571078925985625</v>
+        <v>1.643118196108409</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7975037816126482</v>
+        <v>0.8731090760460667</v>
       </c>
       <c r="C10" s="2">
         <v>42583</v>
@@ -587,10 +587,10 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>0.5464832578008996</v>
+        <v>0.5437264386259378</v>
       </c>
       <c r="F10">
-        <v>1.797503781612648</v>
+        <v>1.873109076046067</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4917164386846287</v>
+        <v>0.5718384986564595</v>
       </c>
       <c r="C11" s="2">
         <v>42583</v>
@@ -607,10 +607,10 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>0.4535167421991005</v>
+        <v>0.4562735613740621</v>
       </c>
       <c r="F11">
-        <v>1.491716438684629</v>
+        <v>1.57183849865646</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6949275814917009</v>
+        <v>0.7716522062781477</v>
       </c>
       <c r="C12" s="2">
         <v>42614</v>
@@ -627,10 +627,10 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>0.5504603931906582</v>
+        <v>0.5500701145859</v>
       </c>
       <c r="F12">
-        <v>1.694927581491701</v>
+        <v>1.771652206278148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3841814742340275</v>
+        <v>0.4491230354596636</v>
       </c>
       <c r="C13" s="2">
         <v>42614</v>
@@ -647,10 +647,10 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0.4495396068093417</v>
+        <v>0.4499298854141</v>
       </c>
       <c r="F13">
-        <v>1.384181474234027</v>
+        <v>1.449123035459664</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -658,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6707223173101666</v>
+        <v>0.722940587002344</v>
       </c>
       <c r="C14" s="2">
         <v>42644</v>
@@ -667,10 +667,10 @@
         <v>46</v>
       </c>
       <c r="E14">
-        <v>0.5052510046484351</v>
+        <v>0.503335955201263</v>
       </c>
       <c r="F14">
-        <v>1.670722317310167</v>
+        <v>1.722940587002344</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6359951398331249</v>
+        <v>0.7001023512145617</v>
       </c>
       <c r="C15" s="2">
         <v>42644</v>
@@ -687,10 +687,10 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>0.4947489953515649</v>
+        <v>0.496664044798737</v>
       </c>
       <c r="F15">
-        <v>1.635995139833125</v>
+        <v>1.700102351214562</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6963587042980015</v>
+        <v>0.7470479658757678</v>
       </c>
       <c r="C16" s="2">
         <v>42675</v>
@@ -707,10 +707,10 @@
         <v>46</v>
       </c>
       <c r="E16">
-        <v>0.518761870054829</v>
+        <v>0.5158362639259031</v>
       </c>
       <c r="F16">
-        <v>1.696358704298002</v>
+        <v>1.747047965875768</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5736555396531007</v>
+        <v>0.6397786069196671</v>
       </c>
       <c r="C17" s="2">
         <v>42675</v>
@@ -727,10 +727,10 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>0.481238129945171</v>
+        <v>0.4841637360740969</v>
       </c>
       <c r="F17">
-        <v>1.573655539653101</v>
+        <v>1.639778606919667</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6852350309642541</v>
+        <v>0.7350575375196176</v>
       </c>
       <c r="C18" s="2">
         <v>42705</v>
@@ -747,10 +747,10 @@
         <v>46</v>
       </c>
       <c r="E18">
-        <v>0.5249333770463854</v>
+        <v>0.523299347189075</v>
       </c>
       <c r="F18">
-        <v>1.685235030964254</v>
+        <v>1.735057537519618</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -758,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5251438564413742</v>
+        <v>0.5805543523853742</v>
       </c>
       <c r="C19" s="2">
         <v>42705</v>
@@ -767,10 +767,10 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>0.4750666229536145</v>
+        <v>0.4767006528109249</v>
       </c>
       <c r="F19">
-        <v>1.525143856441374</v>
+        <v>1.580554352385374</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.241105485383974</v>
+        <v>1.536692158396455</v>
       </c>
       <c r="C20" s="2">
         <v>42736</v>
@@ -787,10 +787,10 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <v>0.5713121222796874</v>
+        <v>0.5950288144065429</v>
       </c>
       <c r="F20">
-        <v>2.241105485383974</v>
+        <v>2.536692158396455</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -798,7 +798,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.681628512349816</v>
+        <v>0.7264495533649276</v>
       </c>
       <c r="C21" s="2">
         <v>42736</v>
@@ -807,10 +807,10 @@
         <v>46</v>
       </c>
       <c r="E21">
-        <v>0.4286878777203125</v>
+        <v>0.4049711855934572</v>
       </c>
       <c r="F21">
-        <v>1.681628512349816</v>
+        <v>1.726449553364928</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -818,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.317506699690582</v>
+        <v>1.569724523986296</v>
       </c>
       <c r="C22" s="2">
         <v>42767</v>
@@ -827,10 +827,10 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>0.5758917605767301</v>
+        <v>0.5946220585800727</v>
       </c>
       <c r="F22">
-        <v>2.317506699690582</v>
+        <v>2.569724523986296</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -838,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7066986429413418</v>
+        <v>0.7518852900234085</v>
       </c>
       <c r="C23" s="2">
         <v>42767</v>
@@ -847,10 +847,10 @@
         <v>46</v>
       </c>
       <c r="E23">
-        <v>0.4241082394232699</v>
+        <v>0.4053779414199272</v>
       </c>
       <c r="F23">
-        <v>1.706698642941342</v>
+        <v>1.751885290023409</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.399612192785892</v>
+        <v>1.648615794359515</v>
       </c>
       <c r="C24" s="2">
         <v>42795</v>
@@ -867,10 +867,10 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>0.5806497559316001</v>
+        <v>0.5982828400407982</v>
       </c>
       <c r="F24">
-        <v>2.399612192785892</v>
+        <v>2.648615794359515</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -878,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7330205488501242</v>
+        <v>0.7784137259571631</v>
       </c>
       <c r="C25" s="2">
         <v>42795</v>
@@ -887,10 +887,10 @@
         <v>46</v>
       </c>
       <c r="E25">
-        <v>0.4193502440684</v>
+        <v>0.4017171599592017</v>
       </c>
       <c r="F25">
-        <v>1.733020548850124</v>
+        <v>1.778413725957163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.474676889499282</v>
+        <v>1.728600332610633</v>
       </c>
       <c r="C26" s="2">
         <v>42826</v>
@@ -907,10 +907,10 @@
         <v>34</v>
       </c>
       <c r="E26">
-        <v>0.5843339411672228</v>
+        <v>0.6014415722032872</v>
       </c>
       <c r="F26">
-        <v>2.474676889499282</v>
+        <v>2.728600332610633</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -918,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7603618702825787</v>
+        <v>0.8081667595190845</v>
       </c>
       <c r="C27" s="2">
         <v>42826</v>
@@ -927,10 +927,10 @@
         <v>46</v>
       </c>
       <c r="E27">
-        <v>0.4156660588327772</v>
+        <v>0.3985584277967127</v>
       </c>
       <c r="F27">
-        <v>1.760361870282579</v>
+        <v>1.808166759519084</v>
       </c>
     </row>
   </sheetData>
